--- a/pyexsimo/model/liver_model_detailed.xlsx
+++ b/pyexsimo/model/liver_model_detailed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="441">
   <si>
     <t xml:space="preserve">pattern</t>
   </si>
@@ -769,6 +769,9 @@
     <t xml:space="preserve">D-glucopyranose</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/WQZGKKKJIJFFOK-GASJEMHNSA-N</t>
+  </si>
+  <si>
     <t xml:space="preserve">kegg.compound/C00031</t>
   </si>
   <si>
@@ -778,9 +781,15 @@
     <t xml:space="preserve">Formula</t>
   </si>
   <si>
+    <t xml:space="preserve">C6H12O6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Charge</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">^atp[_]*\w*$</t>
   </si>
   <si>
@@ -796,6 +805,15 @@
     <t xml:space="preserve">ATP</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/ZKHQWZAMYRWXGA-KQYNXXCUSA-J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H12N5O13P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">^adp[_]*\w*$</t>
   </si>
   <si>
@@ -811,6 +829,9 @@
     <t xml:space="preserve">ADP</t>
   </si>
   <si>
+    <t xml:space="preserve">C10H12N5O10P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^amp[_]*\w*$</t>
   </si>
   <si>
@@ -826,6 +847,9 @@
     <t xml:space="preserve">AMP</t>
   </si>
   <si>
+    <t xml:space="preserve">C10H12N5O7P</t>
+  </si>
+  <si>
     <t xml:space="preserve">^utp[_]*\w*$</t>
   </si>
   <si>
@@ -841,6 +865,9 @@
     <t xml:space="preserve">UTP</t>
   </si>
   <si>
+    <t xml:space="preserve">C9H11N2O15P3</t>
+  </si>
+  <si>
     <t xml:space="preserve">^udp[_]*\w*$</t>
   </si>
   <si>
@@ -856,6 +883,9 @@
     <t xml:space="preserve">UDP</t>
   </si>
   <si>
+    <t xml:space="preserve">C9H11N2O12P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^gtp[_]*\w*$</t>
   </si>
   <si>
@@ -868,6 +898,9 @@
     <t xml:space="preserve">GTP(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C10H12N5O14P3</t>
+  </si>
+  <si>
     <t xml:space="preserve">^gdp[_]*\w*$</t>
   </si>
   <si>
@@ -880,6 +913,12 @@
     <t xml:space="preserve">GDP(3−)</t>
   </si>
   <si>
+    <t xml:space="preserve">C10H12N5O11P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">^nad[_]*\w*$</t>
   </si>
   <si>
@@ -892,6 +931,12 @@
     <t xml:space="preserve">NAD(1-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C21H26N7O14P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">^nadh[_]*\w*$</t>
   </si>
   <si>
@@ -904,6 +949,12 @@
     <t xml:space="preserve">NADH(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C21H27N7O14P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^phos[_]*\w*$</t>
   </si>
   <si>
@@ -919,6 +970,9 @@
     <t xml:space="preserve">Phosphate</t>
   </si>
   <si>
+    <t xml:space="preserve">HO4P</t>
+  </si>
+  <si>
     <t xml:space="preserve">^pp[_]*\w*$</t>
   </si>
   <si>
@@ -934,6 +988,9 @@
     <t xml:space="preserve">Diphosphate</t>
   </si>
   <si>
+    <t xml:space="preserve">HO7P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^co2[_]*\w*$</t>
   </si>
   <si>
@@ -964,6 +1021,12 @@
     <t xml:space="preserve">H+</t>
   </si>
   <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1</t>
+  </si>
+  <si>
     <t xml:space="preserve">^h2[_]*\w*$</t>
   </si>
   <si>
@@ -979,6 +1042,9 @@
     <t xml:space="preserve">Hydrogen</t>
   </si>
   <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^h2o[_]*\w*$</t>
   </si>
   <si>
@@ -1009,6 +1075,9 @@
     <t xml:space="preserve">alpha-D-glucose 1-phosphate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C6H11O9P</t>
+  </si>
+  <si>
     <t xml:space="preserve">^udpglc[_]*\w*$</t>
   </si>
   <si>
@@ -1024,6 +1093,9 @@
     <t xml:space="preserve">UDP-alpha-D-glucose(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C15H22N2O17P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^glyglc[_]*\w*$</t>
   </si>
   <si>
@@ -1072,6 +1144,9 @@
     <t xml:space="preserve">D-fructofuranose 1,6-bisphosphate(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C6H10O12P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^fru26bp[_]*\w*$</t>
   </si>
   <si>
@@ -1096,6 +1171,9 @@
     <t xml:space="preserve">D-glyceraldehyde 3-phosphate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C3H5O6P</t>
+  </si>
+  <si>
     <t xml:space="preserve">^dhap[_]*\w*$</t>
   </si>
   <si>
@@ -1120,6 +1198,9 @@
     <t xml:space="preserve">3-phosphonato-D-glyceroyl phosphate(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C3H4O10P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">^pg3[_]*\w*$</t>
   </si>
   <si>
@@ -1132,6 +1213,9 @@
     <t xml:space="preserve">3-phosphonato-D-glycerate(3-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C3H4O7P</t>
+  </si>
+  <si>
     <t xml:space="preserve">^pg2[_]*\w*$</t>
   </si>
   <si>
@@ -1168,6 +1252,9 @@
     <t xml:space="preserve">pyruvate</t>
   </si>
   <si>
+    <t xml:space="preserve">C3H2O6P</t>
+  </si>
+  <si>
     <t xml:space="preserve">^oaa[_]*\w*$</t>
   </si>
   <si>
@@ -1180,6 +1267,9 @@
     <t xml:space="preserve">oxaloacetate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C3H3O3</t>
+  </si>
+  <si>
     <t xml:space="preserve">^lac[_]*\w*$</t>
   </si>
   <si>
@@ -1192,6 +1282,9 @@
     <t xml:space="preserve">(S)-lactate</t>
   </si>
   <si>
+    <t xml:space="preserve">C4H2O5</t>
+  </si>
+  <si>
     <t xml:space="preserve">^coa[_]*\w*$</t>
   </si>
   <si>
@@ -1204,6 +1297,9 @@
     <t xml:space="preserve">coenzyme A(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C21H32N7O16P3S</t>
+  </si>
+  <si>
     <t xml:space="preserve">^acoa[_]*\w*$</t>
   </si>
   <si>
@@ -1216,6 +1312,9 @@
     <t xml:space="preserve">acetyl-CoA(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">C23H34N7O17P3S</t>
+  </si>
+  <si>
     <t xml:space="preserve">^cit[_]*\w*$</t>
   </si>
   <si>
@@ -1226,6 +1325,9 @@
   </si>
   <si>
     <t xml:space="preserve">citrate(3-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6H5O7</t>
   </si>
   <si>
     <t xml:space="preserve"># rules</t>
@@ -1247,8 +1349,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1348,7 +1451,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1393,8 +1496,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1474,10 +1589,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F457"/>
+  <dimension ref="A1:F459"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A384" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E410" activeCellId="0" sqref="E410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1485,7 +1600,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="19.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="19.24"/>
@@ -5583,9 +5698,7 @@
       <c r="E248" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F248" s="9" t="s">
-        <v>250</v>
-      </c>
+      <c r="F248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
@@ -5595,11 +5708,17 @@
         <v>244</v>
       </c>
       <c r="C249" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F249" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
-      <c r="F249" s="0"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
@@ -5612,40 +5731,38 @@
         <v>252</v>
       </c>
       <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
+      <c r="E250" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="F250" s="0"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0"/>
-      <c r="B251" s="0"/>
-      <c r="C251" s="0"/>
-      <c r="D251" s="0"/>
-      <c r="E251" s="0"/>
+      <c r="A251" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F251" s="0"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F252" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="A252" s="0"/>
+      <c r="B252" s="0"/>
+      <c r="C252" s="0"/>
+      <c r="D252" s="0"/>
+      <c r="E252" s="0"/>
+      <c r="F252" s="0"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>244</v>
@@ -5657,15 +5774,15 @@
         <v>19</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F253" s="8" t="s">
-        <v>255</v>
+        <v>245</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>244</v>
@@ -5674,94 +5791,96 @@
         <v>10</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="9" t="s">
-        <v>253</v>
+      <c r="A256" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C256" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F256" s="8"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="0"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
+      <c r="E257" s="12" t="s">
+        <v>262</v>
+      </c>
       <c r="F257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F258" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F258" s="0"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F259" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="A259" s="0"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="0"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>244</v>
@@ -5770,94 +5889,98 @@
         <v>10</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>262</v>
+        <v>245</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="0"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0"/>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
+      <c r="E263" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="F263" s="0"/>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F264" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F264" s="0"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F265" s="0" t="s">
-        <v>265</v>
-      </c>
+      <c r="A265" s="0"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="0"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>244</v>
@@ -5866,94 +5989,98 @@
         <v>10</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>267</v>
+        <v>245</v>
+      </c>
+      <c r="F266" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C268" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C269" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="0"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0"/>
-      <c r="B269" s="0"/>
-      <c r="C269" s="0"/>
-      <c r="D269" s="0"/>
-      <c r="E269" s="0"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="F269" s="0"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F270" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F270" s="0"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F271" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="A271" s="0"/>
+      <c r="B271" s="0"/>
+      <c r="C271" s="0"/>
+      <c r="D271" s="0"/>
+      <c r="E271" s="0"/>
+      <c r="F271" s="0"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="9" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>244</v>
@@ -5962,94 +6089,98 @@
         <v>10</v>
       </c>
       <c r="D272" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F272" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E272" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F272" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="0"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C274" s="4" t="s">
+      <c r="E274" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="0"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="9"/>
-      <c r="B275" s="0"/>
-      <c r="C275" s="0"/>
-      <c r="D275" s="0"/>
-      <c r="E275" s="0"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="F275" s="0"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F276" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F276" s="0"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F277" s="8" t="s">
-        <v>275</v>
-      </c>
+      <c r="A277" s="9"/>
+      <c r="B277" s="0"/>
+      <c r="C277" s="0"/>
+      <c r="D277" s="0"/>
+      <c r="E277" s="0"/>
+      <c r="F277" s="0"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>244</v>
@@ -6058,92 +6189,98 @@
         <v>10</v>
       </c>
       <c r="D278" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F278" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E278" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F278" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="0"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C280" s="4" t="s">
+      <c r="E280" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F280" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C281" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="0"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0"/>
-      <c r="B281" s="0"/>
-      <c r="C281" s="0"/>
-      <c r="D281" s="0"/>
-      <c r="E281" s="0"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="12" t="s">
+        <v>287</v>
+      </c>
       <c r="F281" s="0"/>
     </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F282" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D282" s="4"/>
+      <c r="E282" s="12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F282" s="0"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="A283" s="0"/>
+      <c r="B283" s="0"/>
+      <c r="C283" s="0"/>
+      <c r="D283" s="0"/>
+      <c r="E283" s="0"/>
       <c r="F283" s="0"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>244</v>
@@ -6155,89 +6292,93 @@
         <v>19</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>281</v>
+        <v>245</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="F285" s="0"/>
     </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C286" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F286" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="0"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0"/>
-      <c r="B287" s="0"/>
-      <c r="C287" s="0"/>
-      <c r="D287" s="0"/>
-      <c r="E287" s="0"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="12" t="s">
+        <v>292</v>
+      </c>
       <c r="F287" s="0"/>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F288" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D288" s="4"/>
+      <c r="E288" s="12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F288" s="0"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="A289" s="0"/>
+      <c r="B289" s="0"/>
+      <c r="C289" s="0"/>
+      <c r="D289" s="0"/>
+      <c r="E289" s="0"/>
       <c r="F289" s="0"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>244</v>
@@ -6249,89 +6390,93 @@
         <v>19</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F290" s="11" t="s">
-        <v>285</v>
+        <v>245</v>
+      </c>
+      <c r="F290" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="9" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="F291" s="0"/>
     </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="9" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C292" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F292" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="0"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0"/>
-      <c r="B293" s="0"/>
-      <c r="C293" s="0"/>
-      <c r="D293" s="0"/>
-      <c r="E293" s="0"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="12" t="s">
+        <v>297</v>
+      </c>
       <c r="F293" s="0"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="9" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E294" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F294" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D294" s="4"/>
+      <c r="E294" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F294" s="0"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D295" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="A295" s="0"/>
+      <c r="B295" s="0"/>
+      <c r="C295" s="0"/>
+      <c r="D295" s="0"/>
+      <c r="E295" s="0"/>
       <c r="F295" s="0"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="9" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>244</v>
@@ -6343,89 +6488,93 @@
         <v>19</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F296" s="11" t="s">
-        <v>289</v>
+        <v>245</v>
+      </c>
+      <c r="F296" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="9" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="F297" s="0"/>
     </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="9" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C298" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="0"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0"/>
-      <c r="B299" s="0"/>
-      <c r="C299" s="0"/>
-      <c r="D299" s="0"/>
-      <c r="E299" s="0"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="F299" s="0"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F300" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F300" s="0"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="A301" s="0"/>
+      <c r="B301" s="0"/>
+      <c r="C301" s="0"/>
+      <c r="D301" s="0"/>
+      <c r="E301" s="0"/>
       <c r="F301" s="0"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="9" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>244</v>
@@ -6437,91 +6586,93 @@
         <v>19</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F302" s="11" t="s">
-        <v>293</v>
+        <v>245</v>
+      </c>
+      <c r="F302" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="9" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="F303" s="0"/>
     </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="9" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C304" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F304" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="0"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0"/>
-      <c r="B305" s="0"/>
-      <c r="C305" s="0"/>
-      <c r="D305" s="0"/>
-      <c r="E305" s="0"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="F305" s="0"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="9" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E306" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F306" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F306" s="0"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F307" s="8" t="s">
-        <v>296</v>
-      </c>
+      <c r="A307" s="0"/>
+      <c r="B307" s="0"/>
+      <c r="C307" s="0"/>
+      <c r="D307" s="0"/>
+      <c r="E307" s="0"/>
+      <c r="F307" s="0"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="9" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>244</v>
@@ -6530,94 +6681,98 @@
         <v>10</v>
       </c>
       <c r="D308" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F308" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E308" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F308" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="0"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C310" s="4" t="s">
+      <c r="E310" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F310" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="0"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0"/>
-      <c r="B311" s="0"/>
-      <c r="C311" s="0"/>
-      <c r="D311" s="0"/>
-      <c r="E311" s="0"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="12" t="s">
+        <v>316</v>
+      </c>
       <c r="F311" s="0"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="9" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D312" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F312" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D312" s="4"/>
+      <c r="E312" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F312" s="0"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D313" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F313" s="8" t="s">
-        <v>301</v>
-      </c>
+      <c r="A313" s="0"/>
+      <c r="B313" s="0"/>
+      <c r="C313" s="0"/>
+      <c r="D313" s="0"/>
+      <c r="E313" s="0"/>
+      <c r="F313" s="0"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="9" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>244</v>
@@ -6626,94 +6781,98 @@
         <v>10</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F314" s="8" t="s">
-        <v>303</v>
+        <v>245</v>
+      </c>
+      <c r="F314" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="9" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F315" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="9" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C316" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F316" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C317" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="0"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0"/>
-      <c r="B317" s="0"/>
-      <c r="C317" s="0"/>
-      <c r="D317" s="0"/>
-      <c r="E317" s="0"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="12" t="s">
+        <v>322</v>
+      </c>
       <c r="F317" s="0"/>
     </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="9" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D318" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F318" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F318" s="0"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F319" s="8" t="s">
-        <v>306</v>
-      </c>
+      <c r="A319" s="0"/>
+      <c r="B319" s="0"/>
+      <c r="C319" s="0"/>
+      <c r="D319" s="0"/>
+      <c r="E319" s="0"/>
+      <c r="F319" s="0"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="9" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>244</v>
@@ -6725,91 +6884,95 @@
         <v>19</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F320" s="8" t="s">
-        <v>308</v>
+        <v>245</v>
+      </c>
+      <c r="F320" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="9" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="9" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C322" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F322" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C323" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="0"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0"/>
-      <c r="B323" s="0"/>
-      <c r="C323" s="0"/>
-      <c r="D323" s="0"/>
-      <c r="E323" s="0"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="F323" s="0"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="9" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D324" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F324" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D324" s="4"/>
+      <c r="E324" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F324" s="0"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D325" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F325" s="8" t="s">
-        <v>311</v>
-      </c>
+      <c r="A325" s="0"/>
+      <c r="B325" s="0"/>
+      <c r="C325" s="0"/>
+      <c r="D325" s="0"/>
+      <c r="E325" s="0"/>
+      <c r="F325" s="0"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="9" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>244</v>
@@ -6821,91 +6984,95 @@
         <v>19</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F326" s="8" t="s">
-        <v>313</v>
+        <v>245</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="9" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F327" s="8" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="9" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C328" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="0"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="9"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
       <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
+      <c r="E329" s="12" t="s">
+        <v>333</v>
+      </c>
       <c r="F329" s="0"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="9" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D330" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F330" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D330" s="4"/>
+      <c r="E330" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F330" s="0"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D331" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E331" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F331" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="A331" s="9"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="0"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="9" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>244</v>
@@ -6917,91 +7084,95 @@
         <v>19</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F332" s="8" t="s">
-        <v>318</v>
+        <v>245</v>
+      </c>
+      <c r="F332" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="9" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="9" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C334" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C335" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D334" s="4"/>
-      <c r="E334" s="4"/>
-      <c r="F334" s="0"/>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="9"/>
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
+      <c r="E335" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="F335" s="0"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="9" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E336" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F336" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D336" s="4"/>
+      <c r="E336" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F336" s="0"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F337" s="8" t="s">
-        <v>321</v>
-      </c>
+      <c r="A337" s="9"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="0"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="9" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>244</v>
@@ -7013,91 +7184,95 @@
         <v>19</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F338" s="8" t="s">
-        <v>323</v>
+        <v>245</v>
+      </c>
+      <c r="F338" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="9" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
-      <c r="F339" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="9" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C340" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F340" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C341" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
-      <c r="F340" s="0"/>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0"/>
-      <c r="B341" s="0"/>
-      <c r="C341" s="0"/>
-      <c r="D341" s="0"/>
-      <c r="E341" s="0"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="F341" s="0"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="9" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E342" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F342" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D342" s="4"/>
+      <c r="E342" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F342" s="0"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C343" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F343" s="8" t="s">
-        <v>326</v>
-      </c>
+      <c r="A343" s="0"/>
+      <c r="B343" s="0"/>
+      <c r="C343" s="0"/>
+      <c r="D343" s="0"/>
+      <c r="E343" s="0"/>
+      <c r="F343" s="0"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="9" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>244</v>
@@ -7109,91 +7284,95 @@
         <v>19</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F344" s="8" t="s">
-        <v>328</v>
+        <v>245</v>
+      </c>
+      <c r="F344" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="9" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D345" s="0"/>
-      <c r="E345" s="4"/>
-      <c r="F345" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="9" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C346" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F346" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C347" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="0"/>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0"/>
-      <c r="B347" s="0"/>
-      <c r="C347" s="0"/>
       <c r="D347" s="0"/>
-      <c r="E347" s="0"/>
+      <c r="E347" s="14" t="s">
+        <v>351</v>
+      </c>
       <c r="F347" s="0"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="9" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E348" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F348" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D348" s="4"/>
+      <c r="E348" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F348" s="0"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E349" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F349" s="8" t="s">
-        <v>331</v>
-      </c>
+      <c r="A349" s="0"/>
+      <c r="B349" s="0"/>
+      <c r="C349" s="0"/>
+      <c r="D349" s="0"/>
+      <c r="E349" s="0"/>
+      <c r="F349" s="0"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="9" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>244</v>
@@ -7205,89 +7384,95 @@
         <v>19</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F350" s="8" t="s">
-        <v>333</v>
+        <v>245</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="9" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D351" s="4"/>
-      <c r="E351" s="4"/>
-      <c r="F351" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="9" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C352" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F352" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C353" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
-      <c r="F352" s="0"/>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0"/>
-      <c r="B353" s="0"/>
-      <c r="C353" s="0"/>
-      <c r="D353" s="0"/>
-      <c r="E353" s="0"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="12" t="s">
+        <v>357</v>
+      </c>
       <c r="F353" s="0"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="9" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D354" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E354" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F354" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D354" s="4"/>
+      <c r="E354" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F354" s="0"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D355" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E355" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="A355" s="0"/>
+      <c r="B355" s="0"/>
+      <c r="C355" s="0"/>
+      <c r="D355" s="0"/>
+      <c r="E355" s="0"/>
       <c r="F355" s="0"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="9" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>244</v>
@@ -7296,186 +7481,194 @@
         <v>10</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F356" s="0"/>
+        <v>245</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="9" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="F357" s="0"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="9" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C358" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C359" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="0"/>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0"/>
-      <c r="B359" s="0"/>
-      <c r="C359" s="0"/>
-      <c r="D359" s="0"/>
-      <c r="E359" s="0"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="F359" s="0"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="9" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D360" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E360" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D360" s="4"/>
+      <c r="E360" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0"/>
+      <c r="B361" s="0"/>
+      <c r="C361" s="0"/>
+      <c r="D361" s="0"/>
+      <c r="E361" s="0"/>
+      <c r="F361" s="0"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E362" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F360" s="9" t="s">
+      <c r="F362" s="9" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D361" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F361" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D362" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E362" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F362" s="8" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="9" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D363" s="4"/>
-      <c r="E363" s="4"/>
-      <c r="F363" s="0"/>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="9" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C364" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F364" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="0"/>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0"/>
-      <c r="B365" s="0"/>
-      <c r="C365" s="0"/>
-      <c r="D365" s="0"/>
-      <c r="E365" s="0"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="12" t="s">
+        <v>351</v>
+      </c>
       <c r="F365" s="0"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="9" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D366" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E366" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F366" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D366" s="4"/>
+      <c r="E366" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F366" s="0"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D367" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E367" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="A367" s="0"/>
+      <c r="B367" s="0"/>
+      <c r="C367" s="0"/>
+      <c r="D367" s="0"/>
+      <c r="E367" s="0"/>
       <c r="F367" s="0"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="9" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>244</v>
@@ -7487,371 +7680,387 @@
         <v>19</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F368" s="11" t="s">
-        <v>345</v>
+        <v>245</v>
+      </c>
+      <c r="F368" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="9" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="F369" s="0"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="9" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C370" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F370" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C371" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
-      <c r="F370" s="0"/>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0"/>
-      <c r="B371" s="0"/>
-      <c r="C371" s="0"/>
-      <c r="D371" s="0"/>
-      <c r="E371" s="0"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="12" t="s">
+        <v>351</v>
+      </c>
       <c r="F371" s="0"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="9" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D372" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E372" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D372" s="4"/>
+      <c r="E372" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0"/>
+      <c r="B373" s="0"/>
+      <c r="C373" s="0"/>
+      <c r="D373" s="0"/>
+      <c r="E373" s="0"/>
+      <c r="F373" s="0"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E374" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F372" s="9" t="s">
+      <c r="F374" s="9" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D373" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E373" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F373" s="0"/>
-    </row>
-    <row r="374" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D374" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E374" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F374" s="11" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="9" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="F375" s="0"/>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="9" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C376" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F376" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C377" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
-      <c r="F376" s="0"/>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0"/>
-      <c r="B377" s="0"/>
-      <c r="C377" s="0"/>
-      <c r="D377" s="0"/>
-      <c r="E377" s="0"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="8" t="s">
+        <v>374</v>
+      </c>
       <c r="F377" s="0"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="9" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D378" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E378" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D378" s="4"/>
+      <c r="E378" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F378" s="0"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0"/>
+      <c r="B379" s="0"/>
+      <c r="C379" s="0"/>
+      <c r="D379" s="0"/>
+      <c r="E379" s="0"/>
+      <c r="F379" s="0"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E380" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F378" s="9" t="s">
+      <c r="F380" s="9" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D379" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E379" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F379" s="0"/>
-    </row>
-    <row r="380" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D380" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E380" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F380" s="11" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="9" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D381" s="4"/>
-      <c r="E381" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="F381" s="0"/>
     </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="9" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C382" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F382" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C383" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D382" s="4"/>
-      <c r="E382" s="4"/>
-      <c r="F382" s="0"/>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0"/>
-      <c r="B383" s="0"/>
-      <c r="C383" s="0"/>
-      <c r="D383" s="0"/>
-      <c r="E383" s="0"/>
+      <c r="D383" s="4"/>
+      <c r="E383" s="8" t="s">
+        <v>374</v>
+      </c>
       <c r="F383" s="0"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="9" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D384" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E384" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D384" s="4"/>
+      <c r="E384" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F384" s="0"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0"/>
+      <c r="B385" s="0"/>
+      <c r="C385" s="0"/>
+      <c r="D385" s="0"/>
+      <c r="E385" s="0"/>
+      <c r="F385" s="0"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E386" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F384" s="9" t="s">
+      <c r="F386" s="9" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D385" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E385" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F385" s="0"/>
-    </row>
-    <row r="386" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D386" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E386" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F386" s="11" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="9" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="F387" s="0"/>
     </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="9" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C388" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F388" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C389" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D388" s="4"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="0"/>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0"/>
-      <c r="B389" s="0"/>
-      <c r="C389" s="0"/>
-      <c r="D389" s="0"/>
-      <c r="E389" s="0"/>
+      <c r="D389" s="4"/>
+      <c r="E389" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="F389" s="0"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="9" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D390" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E390" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F390" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D390" s="4"/>
+      <c r="E390" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F390" s="0"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D391" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E391" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="A391" s="0"/>
+      <c r="B391" s="0"/>
+      <c r="C391" s="0"/>
+      <c r="D391" s="0"/>
+      <c r="E391" s="0"/>
       <c r="F391" s="0"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="9" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>244</v>
@@ -7863,183 +8072,191 @@
         <v>19</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F392" s="11" t="s">
-        <v>361</v>
+        <v>245</v>
+      </c>
+      <c r="F392" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="9" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E393" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="F393" s="0"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="9" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C394" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F394" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C395" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D394" s="4"/>
-      <c r="E394" s="4"/>
-      <c r="F394" s="0"/>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0"/>
-      <c r="B395" s="0"/>
-      <c r="C395" s="0"/>
-      <c r="D395" s="0"/>
-      <c r="E395" s="0"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="F395" s="0"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="9" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D396" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E396" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D396" s="4"/>
+      <c r="E396" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F396" s="0"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0"/>
+      <c r="B397" s="0"/>
+      <c r="C397" s="0"/>
+      <c r="D397" s="0"/>
+      <c r="E397" s="0"/>
+      <c r="F397" s="0"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E398" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F396" s="9" t="s">
+      <c r="F398" s="9" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B397" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D397" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E397" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F397" s="0"/>
-    </row>
-    <row r="398" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E398" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F398" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D399" s="4"/>
-      <c r="E399" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="F399" s="0"/>
     </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C400" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E400" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F400" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C401" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D400" s="4"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="0"/>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0"/>
-      <c r="B401" s="0"/>
-      <c r="C401" s="0"/>
-      <c r="D401" s="0"/>
-      <c r="E401" s="0"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="8" t="s">
+        <v>392</v>
+      </c>
       <c r="F401" s="0"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="9" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F402" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D402" s="4"/>
+      <c r="E402" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F402" s="0"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>367</v>
-      </c>
+      <c r="A403" s="0"/>
+      <c r="B403" s="0"/>
+      <c r="C403" s="0"/>
+      <c r="D403" s="0"/>
+      <c r="E403" s="0"/>
       <c r="F403" s="0"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="9" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>244</v>
@@ -8051,89 +8268,93 @@
         <v>19</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F404" s="11" t="s">
-        <v>369</v>
+        <v>245</v>
+      </c>
+      <c r="F404" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="9" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D405" s="4"/>
-      <c r="E405" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="F405" s="0"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="9" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C406" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F406" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C407" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
-      <c r="F406" s="0"/>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0"/>
-      <c r="B407" s="0"/>
-      <c r="C407" s="0"/>
-      <c r="D407" s="0"/>
-      <c r="E407" s="0"/>
+      <c r="D407" s="4"/>
+      <c r="E407" s="8" t="s">
+        <v>397</v>
+      </c>
       <c r="F407" s="0"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="9" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D408" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E408" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F408" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D408" s="4"/>
+      <c r="E408" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F408" s="0"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B409" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D409" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E409" s="4" t="s">
-        <v>371</v>
-      </c>
+      <c r="A409" s="0"/>
+      <c r="B409" s="0"/>
+      <c r="C409" s="0"/>
+      <c r="D409" s="0"/>
+      <c r="E409" s="0"/>
       <c r="F409" s="0"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="9" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>244</v>
@@ -8145,89 +8366,93 @@
         <v>19</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F410" s="11" t="s">
-        <v>373</v>
+        <v>245</v>
+      </c>
+      <c r="F410" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="9" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D411" s="4"/>
-      <c r="E411" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E411" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="F411" s="0"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="9" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C412" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F412" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D412" s="4"/>
-      <c r="E412" s="4"/>
-      <c r="F412" s="0"/>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0"/>
-      <c r="B413" s="0"/>
-      <c r="C413" s="0"/>
-      <c r="D413" s="0"/>
-      <c r="E413" s="0"/>
+      <c r="D413" s="4"/>
+      <c r="E413" s="8" t="s">
+        <v>397</v>
+      </c>
       <c r="F413" s="0"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="9" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D414" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E414" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F414" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F414" s="0"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C415" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D415" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E415" s="4" t="s">
-        <v>375</v>
-      </c>
+      <c r="A415" s="0"/>
+      <c r="B415" s="0"/>
+      <c r="C415" s="0"/>
+      <c r="D415" s="0"/>
+      <c r="E415" s="0"/>
       <c r="F415" s="0"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="9" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>244</v>
@@ -8239,89 +8464,93 @@
         <v>19</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F416" s="11" t="s">
-        <v>377</v>
+        <v>245</v>
+      </c>
+      <c r="F416" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="9" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="F417" s="0"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="9" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C418" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E418" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F418" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C419" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D418" s="4"/>
-      <c r="E418" s="4"/>
-      <c r="F418" s="0"/>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0"/>
-      <c r="B419" s="0"/>
-      <c r="C419" s="0"/>
-      <c r="D419" s="0"/>
-      <c r="E419" s="0"/>
+      <c r="D419" s="4"/>
+      <c r="E419" s="8" t="s">
+        <v>397</v>
+      </c>
       <c r="F419" s="0"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="9" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D420" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E420" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F420" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D420" s="4"/>
+      <c r="E420" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F420" s="0"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D421" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E421" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="A421" s="0"/>
+      <c r="B421" s="0"/>
+      <c r="C421" s="0"/>
+      <c r="D421" s="0"/>
+      <c r="E421" s="0"/>
       <c r="F421" s="0"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="9" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>244</v>
@@ -8333,89 +8562,93 @@
         <v>19</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F422" s="0" t="s">
-        <v>381</v>
+        <v>245</v>
+      </c>
+      <c r="F422" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="9" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D423" s="4"/>
-      <c r="E423" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="F423" s="0"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="9" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C424" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F424" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C425" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D424" s="4"/>
-      <c r="E424" s="4"/>
-      <c r="F424" s="0"/>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0"/>
-      <c r="B425" s="0"/>
-      <c r="C425" s="0"/>
-      <c r="D425" s="0"/>
-      <c r="E425" s="0"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="8" t="s">
+        <v>410</v>
+      </c>
       <c r="F425" s="0"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="9" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D426" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E426" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F426" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D426" s="4"/>
+      <c r="E426" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F426" s="0"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C427" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D427" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E427" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="A427" s="0"/>
+      <c r="B427" s="0"/>
+      <c r="C427" s="0"/>
+      <c r="D427" s="0"/>
+      <c r="E427" s="0"/>
       <c r="F427" s="0"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>244</v>
@@ -8427,89 +8660,93 @@
         <v>19</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F428" s="11" t="s">
-        <v>385</v>
+        <v>245</v>
+      </c>
+      <c r="F428" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E429" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="F429" s="0"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C430" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E430" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F430" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D430" s="4"/>
-      <c r="E430" s="4"/>
-      <c r="F430" s="0"/>
-    </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0"/>
-      <c r="B431" s="0"/>
-      <c r="C431" s="0"/>
-      <c r="D431" s="0"/>
-      <c r="E431" s="0"/>
+      <c r="D431" s="4"/>
+      <c r="E431" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="F431" s="0"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="9" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D432" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E432" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F432" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D432" s="4"/>
+      <c r="E432" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F432" s="0"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B433" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C433" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D433" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E433" s="4" t="s">
-        <v>387</v>
-      </c>
+      <c r="A433" s="0"/>
+      <c r="B433" s="0"/>
+      <c r="C433" s="0"/>
+      <c r="D433" s="0"/>
+      <c r="E433" s="0"/>
       <c r="F433" s="0"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="9" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>244</v>
@@ -8521,89 +8758,93 @@
         <v>19</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="F434" s="11" t="s">
-        <v>389</v>
+        <v>245</v>
+      </c>
+      <c r="F434" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="9" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D435" s="0"/>
-      <c r="E435" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E435" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="F435" s="0"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="9" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C436" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E436" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F436" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C437" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D436" s="4"/>
-      <c r="E436" s="4"/>
-      <c r="F436" s="0"/>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="9"/>
-      <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
-      <c r="E437" s="4"/>
+      <c r="D437" s="0"/>
+      <c r="E437" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="F437" s="0"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="9" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D438" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E438" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F438" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D438" s="4"/>
+      <c r="E438" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F438" s="0"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B439" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C439" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D439" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E439" s="4" t="s">
-        <v>391</v>
-      </c>
+      <c r="A439" s="9"/>
+      <c r="B439" s="4"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
+      <c r="E439" s="4"/>
       <c r="F439" s="0"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="9" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>244</v>
@@ -8615,89 +8856,93 @@
         <v>19</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F440" s="11" t="s">
-        <v>393</v>
+        <v>245</v>
+      </c>
+      <c r="F440" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="9" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D441" s="0"/>
-      <c r="E441" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E441" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="F441" s="0"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="9" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C442" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F442" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D442" s="4"/>
-      <c r="E442" s="4"/>
-      <c r="F442" s="0"/>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0"/>
-      <c r="B443" s="0"/>
-      <c r="C443" s="0"/>
       <c r="D443" s="0"/>
-      <c r="E443" s="0"/>
+      <c r="E443" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="F443" s="0"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="9" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D444" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E444" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F444" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D444" s="4"/>
+      <c r="E444" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F444" s="0"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B445" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D445" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E445" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="A445" s="0"/>
+      <c r="B445" s="0"/>
+      <c r="C445" s="0"/>
+      <c r="D445" s="0"/>
+      <c r="E445" s="0"/>
       <c r="F445" s="0"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="9" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>244</v>
@@ -8709,89 +8954,93 @@
         <v>19</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F446" s="11" t="s">
-        <v>397</v>
+        <v>245</v>
+      </c>
+      <c r="F446" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="9" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D447" s="0"/>
-      <c r="E447" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E447" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="F447" s="0"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="9" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C448" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D448" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E448" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F448" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C449" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D448" s="4"/>
-      <c r="E448" s="4"/>
-      <c r="F448" s="0"/>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0"/>
-      <c r="B449" s="0"/>
-      <c r="C449" s="0"/>
       <c r="D449" s="0"/>
-      <c r="E449" s="0"/>
+      <c r="E449" s="8" t="s">
+        <v>430</v>
+      </c>
       <c r="F449" s="0"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="9" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D450" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E450" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F450" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D450" s="4"/>
+      <c r="E450" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F450" s="0"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="B451" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C451" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D451" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E451" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="A451" s="0"/>
+      <c r="B451" s="0"/>
+      <c r="C451" s="0"/>
+      <c r="D451" s="0"/>
+      <c r="E451" s="0"/>
       <c r="F451" s="0"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="9" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>244</v>
@@ -8803,76 +9052,118 @@
         <v>19</v>
       </c>
       <c r="E452" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F452" s="11" t="s">
-        <v>401</v>
+        <v>245</v>
+      </c>
+      <c r="F452" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="9" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D453" s="0"/>
-      <c r="E453" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E453" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="F453" s="0"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="9" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C454" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D454" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E454" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F454" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C455" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D454" s="4"/>
-      <c r="E454" s="4"/>
-      <c r="F454" s="0"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0"/>
-      <c r="B455" s="0"/>
-      <c r="C455" s="0"/>
       <c r="D455" s="0"/>
-      <c r="E455" s="0"/>
+      <c r="E455" s="8" t="s">
+        <v>435</v>
+      </c>
       <c r="F455" s="0"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B456" s="7"/>
-      <c r="C456" s="7"/>
-      <c r="D456" s="7"/>
-      <c r="E456" s="7"/>
-      <c r="F456" s="7"/>
+      <c r="A456" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D456" s="4"/>
+      <c r="E456" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F456" s="0"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D457" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E457" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F457" s="8" t="s">
-        <v>406</v>
+      <c r="A457" s="0"/>
+      <c r="B457" s="0"/>
+      <c r="C457" s="0"/>
+      <c r="D457" s="0"/>
+      <c r="E457" s="0"/>
+      <c r="F457" s="0"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B458" s="7"/>
+      <c r="C458" s="7"/>
+      <c r="D458" s="7"/>
+      <c r="E458" s="7"/>
+      <c r="F458" s="7"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E459" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F459" s="8" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
